--- a/Kuis Pekan UAS/Covid19Patient.xlsx
+++ b/Kuis Pekan UAS/Covid19Patient.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dimas\Kuliah\Semester 3\Statistik dan Prob\UAS\Fix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dimas\Kuliah\Semester 3\Statistik dan Prob\UAS\Kuis Pekan UAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{24E6246A-8616-4CAB-9845-648D021BE54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5A0F80-C19E-4EB8-A181-C9176F87AC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{1BAE77ED-D513-4620-B75B-917AC9DCB1A9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1BAE77ED-D513-4620-B75B-917AC9DCB1A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid19Patient" sheetId="1" r:id="rId1"/>
@@ -144,6 +144,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="11">
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000000"/>
+    <numFmt numFmtId="169" formatCode="0.00000000000"/>
+    <numFmt numFmtId="170" formatCode="0.000000000000"/>
+    <numFmt numFmtId="171" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="172" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="173" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="174" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="175" formatCode="0.00000000000000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -201,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -214,6 +227,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,11 +557,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D8A2D1-FDD4-4400-905F-691B8DF540F2}">
   <dimension ref="A1:U1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K11" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1328,10 +1362,10 @@
       <c r="M19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="14">
         <v>96.338528297419984</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="12">
         <v>13.93564055447438</v>
       </c>
       <c r="P19" s="2">
@@ -1340,16 +1374,16 @@
       <c r="Q19" s="2">
         <v>8.4971230840566961E-12</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19" s="6">
         <v>68.99167373068002</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19" s="7">
         <v>123.68538286415995</v>
       </c>
-      <c r="T19" s="2">
+      <c r="T19" s="7">
         <v>68.99167373068002</v>
       </c>
-      <c r="U19" s="2">
+      <c r="U19" s="7">
         <v>123.68538286415995</v>
       </c>
     </row>
@@ -1390,10 +1424,10 @@
       <c r="M20" s="2">
         <v>97</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="14">
         <v>-7.3453587062832379E-2</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="12">
         <v>1.0583782595389045E-2</v>
       </c>
       <c r="P20" s="2">
@@ -1402,16 +1436,16 @@
       <c r="Q20" s="2">
         <v>7.0790404231218629E-12</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20" s="7">
         <v>-9.4222862954435951E-2</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20" s="9">
         <v>-5.2684311171228806E-2</v>
       </c>
-      <c r="T20" s="2">
+      <c r="T20" s="10">
         <v>-9.4222862954435951E-2</v>
       </c>
-      <c r="U20" s="2">
+      <c r="U20" s="9">
         <v>-5.2684311171228806E-2</v>
       </c>
     </row>
@@ -1452,10 +1486,10 @@
       <c r="M21" s="2">
         <v>2</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="14">
         <v>-1.7251211446499586</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="12">
         <v>1.0745560652017438</v>
       </c>
       <c r="P21" s="2">
@@ -1464,16 +1498,16 @@
       <c r="Q21" s="2">
         <v>0.1087194603529066</v>
       </c>
-      <c r="R21" s="2">
+      <c r="R21" s="8">
         <v>-3.8337955413532674</v>
       </c>
-      <c r="S21" s="2">
+      <c r="S21" s="9">
         <v>0.38355325205335</v>
       </c>
-      <c r="T21" s="2">
+      <c r="T21" s="11">
         <v>-3.8337955413532674</v>
       </c>
-      <c r="U21" s="2">
+      <c r="U21" s="9">
         <v>0.38355325205335</v>
       </c>
     </row>
@@ -1514,10 +1548,10 @@
       <c r="M22" s="2">
         <v>2</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="14">
         <v>-3.0058248504080258</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="12">
         <v>12.221513612943426</v>
       </c>
       <c r="P22" s="2">
@@ -1526,16 +1560,16 @@
       <c r="Q22" s="2">
         <v>0.80577559464293758</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R22" s="8">
         <v>-26.988931622725492</v>
       </c>
-      <c r="S22" s="2">
+      <c r="S22" s="8">
         <v>20.977281921909441</v>
       </c>
-      <c r="T22" s="2">
+      <c r="T22" s="10">
         <v>-26.988931622725492</v>
       </c>
-      <c r="U22" s="2">
+      <c r="U22" s="8">
         <v>20.977281921909441</v>
       </c>
     </row>
@@ -1576,10 +1610,10 @@
       <c r="M23" s="2">
         <v>97</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="14">
         <v>2.9569871659512612E-2</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="12">
         <v>0.12860417702494178</v>
       </c>
       <c r="P23" s="2">
@@ -1588,16 +1622,16 @@
       <c r="Q23" s="2">
         <v>0.81819428260745353</v>
       </c>
-      <c r="R23" s="2">
+      <c r="R23" s="9">
         <v>-0.22279884523073248</v>
       </c>
-      <c r="S23" s="2">
+      <c r="S23" s="9">
         <v>0.28193858854975773</v>
       </c>
-      <c r="T23" s="2">
+      <c r="T23" s="11">
         <v>-0.22279884523073248</v>
       </c>
-      <c r="U23" s="2">
+      <c r="U23" s="9">
         <v>0.28193858854975773</v>
       </c>
     </row>
@@ -1638,10 +1672,10 @@
       <c r="M24" s="2">
         <v>2</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24" s="14">
         <v>-7.5495411305806464</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="12">
         <v>1.1046319407099214</v>
       </c>
       <c r="P24" s="2">
@@ -1650,16 +1684,16 @@
       <c r="Q24" s="2">
         <v>1.4385851460039132E-11</v>
       </c>
-      <c r="R24" s="2">
+      <c r="R24" s="9">
         <v>-9.7172354618376939</v>
       </c>
-      <c r="S24" s="2">
+      <c r="S24" s="9">
         <v>-5.3818467993235988</v>
       </c>
-      <c r="T24" s="2">
+      <c r="T24" s="11">
         <v>-9.7172354618376939</v>
       </c>
-      <c r="U24" s="2">
+      <c r="U24" s="9">
         <v>-5.3818467993235988</v>
       </c>
     </row>
@@ -1700,10 +1734,10 @@
       <c r="M25" s="2">
         <v>2</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="14">
         <v>0.39242238049108502</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="12">
         <v>2.4060594709395446</v>
       </c>
       <c r="P25" s="2">
@@ -1712,16 +1746,16 @@
       <c r="Q25" s="2">
         <v>0.87047499013730401</v>
       </c>
-      <c r="R25" s="2">
+      <c r="R25" s="9">
         <v>-4.3291516421386032</v>
       </c>
-      <c r="S25" s="2">
+      <c r="S25" s="9">
         <v>5.1139964031207725</v>
       </c>
-      <c r="T25" s="2">
+      <c r="T25" s="11">
         <v>-4.3291516421386032</v>
       </c>
-      <c r="U25" s="2">
+      <c r="U25" s="9">
         <v>5.1139964031207725</v>
       </c>
     </row>
@@ -1762,10 +1796,10 @@
       <c r="M26" s="2">
         <v>2</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="14">
         <v>0.13784099247618817</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="12">
         <v>0.12896183629745203</v>
       </c>
       <c r="P26" s="2">
@@ -1774,16 +1808,16 @@
       <c r="Q26" s="2">
         <v>0.28539786759426145</v>
       </c>
-      <c r="R26" s="2">
+      <c r="R26" s="9">
         <v>-0.11522958351206899</v>
       </c>
-      <c r="S26" s="2">
+      <c r="S26" s="9">
         <v>0.3909115684644453</v>
       </c>
-      <c r="T26" s="2">
+      <c r="T26" s="11">
         <v>-0.11522958351206899</v>
       </c>
-      <c r="U26" s="2">
+      <c r="U26" s="9">
         <v>0.3909115684644453</v>
       </c>
     </row>
@@ -1824,10 +1858,10 @@
       <c r="M27" s="2">
         <v>2</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="13">
         <v>-10.161021050848865</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="12">
         <v>0.98570489270658046</v>
       </c>
       <c r="P27" s="2">
@@ -1836,16 +1870,16 @@
       <c r="Q27" s="2">
         <v>9.7880361635839602E-24</v>
       </c>
-      <c r="R27" s="2">
+      <c r="R27" s="8">
         <v>-12.095336753180611</v>
       </c>
-      <c r="S27" s="2">
+      <c r="S27" s="8">
         <v>-8.2267053485171182</v>
       </c>
-      <c r="T27" s="2">
+      <c r="T27" s="10">
         <v>-12.095336753180611</v>
       </c>
-      <c r="U27" s="2">
+      <c r="U27" s="9">
         <v>-8.2267053485171182</v>
       </c>
     </row>
@@ -1886,10 +1920,10 @@
       <c r="M28" s="2">
         <v>2</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="14">
         <v>-5.3647166517556331</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="12">
         <v>2.4727291820131483</v>
       </c>
       <c r="P28" s="2">
@@ -1898,16 +1932,16 @@
       <c r="Q28" s="2">
         <v>3.0278537823171296E-2</v>
       </c>
-      <c r="R28" s="2">
+      <c r="R28" s="8">
         <v>-10.217121179492676</v>
       </c>
-      <c r="S28" s="2">
+      <c r="S28" s="7">
         <v>-0.5123121240185915</v>
       </c>
-      <c r="T28" s="2">
+      <c r="T28" s="10">
         <v>-10.217121179492676</v>
       </c>
-      <c r="U28" s="2">
+      <c r="U28" s="9">
         <v>-0.5123121240185915</v>
       </c>
     </row>
@@ -1948,10 +1982,10 @@
       <c r="M29" s="3">
         <v>2</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="18">
         <v>1.1516810226226608</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="17">
         <v>0.91838901357044211</v>
       </c>
       <c r="P29" s="3">
@@ -1960,16 +1994,16 @@
       <c r="Q29" s="3">
         <v>0.21013023427100086</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="15">
         <v>-0.65053615509715645</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="19">
         <v>2.9538982003424783</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="16">
         <v>-0.65053615509715645</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="15">
         <v>2.9538982003424783</v>
       </c>
     </row>
